--- a/Assets/StreamingAssets/Questions/czechia/historyPlus_questionPack_czechia_01.xlsx
+++ b/Assets/StreamingAssets/Questions/czechia/historyPlus_questionPack_czechia_01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="80">
   <si>
     <t>code</t>
   </si>
@@ -186,6 +186,78 @@
   </si>
   <si>
     <t>q_CZ_ 6_20</t>
+  </si>
+  <si>
+    <t>Mojmír I (vláda)</t>
+  </si>
+  <si>
+    <t>V jakém století vládl první velkomoravský vládce Mojmír I?</t>
+  </si>
+  <si>
+    <t>(vláda)</t>
+  </si>
+  <si>
+    <t>Mojmír I (reign)</t>
+  </si>
+  <si>
+    <t>(reign)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V jakém století vládl </t>
+  </si>
+  <si>
+    <t>In which century did</t>
+  </si>
+  <si>
+    <t>Rostislav (reign)</t>
+  </si>
+  <si>
+    <t>Rostislav (vláda)</t>
+  </si>
+  <si>
+    <t>V jakém století vládl synovec Mojmíra I. Rostislav, druhý vládce Velkomoravské říše?</t>
+  </si>
+  <si>
+    <t>V jakém století vládl synovec  Rostislava Svatopluk I., třetí vládce Velkomoravské říše?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svatopluk I. (reign)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svatopluk I. (vláda)</t>
+  </si>
+  <si>
+    <t>V jakém století vládl syn  Svatopluka I. Mojmír II., čtvrtý a poslední vládce Velkomoravské říše?</t>
+  </si>
+  <si>
+    <t>In which century did Sámo, the first ruler of the Great Moravia rule?</t>
+  </si>
+  <si>
+    <t>In which century did Rostislav, a nephew of Mojmír I. and the second ruler of Great Moravia rule?</t>
+  </si>
+  <si>
+    <t>In which century did  Svatopluk I., a nephew of  Rostislav and the third ruler of Great Moravia rule?</t>
+  </si>
+  <si>
+    <t>In which century did Mojmír II., a son of  Svatopluk I., the fourth and last ruler of Great Moravia rule?</t>
+  </si>
+  <si>
+    <t>Mojmír II. (reign)</t>
+  </si>
+  <si>
+    <t>Mojmír II. (vláda)</t>
+  </si>
+  <si>
+    <t>Bořivoj I. (vláda)</t>
+  </si>
+  <si>
+    <t>Bořivoj I. (reign)</t>
+  </si>
+  <si>
+    <t>V jakém století vládl Bořivoj I., zakladatel dynastie Přemyslovců?</t>
+  </si>
+  <si>
+    <t>In which century did Bořivoj I., the foundner of Přemysl dynasty rule?</t>
   </si>
 </sst>
 </file>
@@ -347,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,8 +599,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -643,6 +727,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -688,15 +818,49 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -745,6 +909,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+      <color rgb="FF3333FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2134,138 +2304,1068 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="9"/>
+    <col min="14" max="14" width="9.140625" style="14"/>
+    <col min="15" max="15" width="6.5703125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="10"/>
+    <col min="19" max="19" width="9.140625" style="18"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>666</v>
-      </c>
-      <c r="N2">
-        <v>666</v>
-      </c>
-      <c r="O2">
+      <c r="O2" s="17">
         <v>6</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="10">
         <v>5</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="10">
         <v>9</v>
       </c>
-      <c r="R2">
-        <v>666</v>
-      </c>
-      <c r="S2">
-        <v>666</v>
+    </row>
+    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="13">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>8</v>
+      </c>
+      <c r="P4" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="13">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
+      </c>
+      <c r="O5" s="17">
+        <v>8</v>
+      </c>
+      <c r="P5" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="13">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>8</v>
+      </c>
+      <c r="P6" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="13">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>9</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4</v>
+      </c>
+      <c r="O7" s="17">
+        <v>9</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="13">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="17">
+        <v>8</v>
+      </c>
+      <c r="P9" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>